--- a/pred_ohlcv/54/2019-11-15 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-15 FNB ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:I292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>14259.4859</v>
+        <v>2820.5048</v>
       </c>
       <c r="G2" t="n">
-        <v>13.10166666666669</v>
+        <v>13.10500000000002</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>132920.0093</v>
+        <v>14259.4859</v>
       </c>
       <c r="G3" t="n">
-        <v>13.09833333333336</v>
+        <v>13.10166666666669</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>2858.5048</v>
+        <v>132920.0093</v>
       </c>
       <c r="G4" t="n">
         <v>13.09833333333336</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C5" t="n">
         <v>13.2</v>
@@ -495,15 +509,18 @@
         <v>13.2</v>
       </c>
       <c r="E5" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F5" t="n">
-        <v>45481.1531</v>
+        <v>2858.5048</v>
       </c>
       <c r="G5" t="n">
         <v>13.09833333333336</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>13.2</v>
       </c>
       <c r="F6" t="n">
-        <v>217.0958</v>
+        <v>45481.1531</v>
       </c>
       <c r="G6" t="n">
         <v>13.09833333333336</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,21 +561,24 @@
         <v>13.2</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D7" t="n">
         <v>13.2</v>
       </c>
       <c r="E7" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F7" t="n">
-        <v>45960.1531</v>
+        <v>217.0958</v>
       </c>
       <c r="G7" t="n">
-        <v>13.09666666666669</v>
+        <v>13.09833333333336</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>13.2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D8" t="n">
         <v>13.2</v>
       </c>
       <c r="E8" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F8" t="n">
-        <v>38</v>
+        <v>45960.1531</v>
       </c>
       <c r="G8" t="n">
-        <v>13.09833333333336</v>
+        <v>13.09666666666669</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F9" t="n">
-        <v>2301.4634</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>13.09666666666669</v>
+        <v>13.09833333333336</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F10" t="n">
-        <v>612094.9785</v>
+        <v>2301.4634</v>
       </c>
       <c r="G10" t="n">
-        <v>13.09333333333336</v>
+        <v>13.09666666666669</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>5867.0455</v>
+        <v>612094.9785</v>
       </c>
       <c r="G11" t="n">
-        <v>13.08833333333335</v>
+        <v>13.09333333333336</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>12.9</v>
       </c>
       <c r="F12" t="n">
-        <v>18130.6664</v>
+        <v>5867.0455</v>
       </c>
       <c r="G12" t="n">
-        <v>13.08333333333335</v>
+        <v>13.08833333333335</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>12.9</v>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>18130.6664</v>
       </c>
       <c r="G13" t="n">
-        <v>13.07833333333335</v>
+        <v>13.08333333333335</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F14" t="n">
-        <v>270232.8957</v>
+        <v>200</v>
       </c>
       <c r="G14" t="n">
-        <v>13.07500000000002</v>
+        <v>13.07833333333335</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>100098.6201</v>
+        <v>270232.8957</v>
       </c>
       <c r="G15" t="n">
         <v>13.07500000000002</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C16" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D16" t="n">
         <v>13.2</v>
       </c>
       <c r="E16" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>100098.6201</v>
       </c>
       <c r="G16" t="n">
         <v>13.07500000000002</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C17" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D17" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E17" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F17" t="n">
-        <v>14259.4859</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
         <v>13.07500000000002</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C18" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D18" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E18" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F18" t="n">
-        <v>99563.7271</v>
+        <v>14259.4859</v>
       </c>
       <c r="G18" t="n">
         <v>13.07500000000002</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>13.2</v>
       </c>
       <c r="F19" t="n">
-        <v>24338.0323</v>
+        <v>99563.7271</v>
       </c>
       <c r="G19" t="n">
         <v>13.07500000000002</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C20" t="n">
         <v>13.2</v>
       </c>
       <c r="D20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E20" t="n">
         <v>13.2</v>
       </c>
       <c r="F20" t="n">
-        <v>133516.195</v>
+        <v>24338.0323</v>
       </c>
       <c r="G20" t="n">
         <v>13.07500000000002</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>13.3</v>
       </c>
       <c r="C21" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D21" t="n">
         <v>13.3</v>
       </c>
       <c r="E21" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>133516.195</v>
       </c>
       <c r="G21" t="n">
-        <v>13.08166666666668</v>
+        <v>13.07500000000002</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -937,15 +1002,18 @@
         <v>13.3</v>
       </c>
       <c r="E22" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F22" t="n">
-        <v>160475.7571</v>
+        <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>13.08333333333335</v>
+        <v>13.08166666666668</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E23" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>160475.7571</v>
       </c>
       <c r="G23" t="n">
-        <v>13.08833333333335</v>
+        <v>13.08333333333335</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>13.4</v>
       </c>
       <c r="F24" t="n">
-        <v>4577.6635</v>
+        <v>38</v>
       </c>
       <c r="G24" t="n">
-        <v>13.09333333333335</v>
+        <v>13.08833333333335</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>13.4</v>
       </c>
       <c r="F25" t="n">
-        <v>30521.7964</v>
+        <v>4577.6635</v>
       </c>
       <c r="G25" t="n">
-        <v>13.09833333333335</v>
+        <v>13.09333333333335</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>13.4</v>
       </c>
       <c r="F26" t="n">
-        <v>37.3135</v>
+        <v>30521.7964</v>
       </c>
       <c r="G26" t="n">
-        <v>13.10333333333335</v>
+        <v>13.09833333333335</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>13.4</v>
       </c>
       <c r="F27" t="n">
-        <v>150209.8516</v>
+        <v>37.3135</v>
       </c>
       <c r="G27" t="n">
-        <v>13.11000000000001</v>
+        <v>13.10333333333335</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>150209.8516</v>
       </c>
       <c r="G28" t="n">
-        <v>13.11666666666668</v>
+        <v>13.11000000000001</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>13.5</v>
       </c>
       <c r="F29" t="n">
-        <v>37.0371</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>13.12333333333334</v>
+        <v>13.11666666666668</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>13.5</v>
       </c>
       <c r="C30" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D30" t="n">
         <v>13.5</v>
       </c>
       <c r="E30" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F30" t="n">
-        <v>3120.5167</v>
+        <v>37.0371</v>
       </c>
       <c r="G30" t="n">
-        <v>13.12833333333334</v>
+        <v>13.12333333333334</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C31" t="n">
         <v>13.4</v>
@@ -1174,12 +1266,15 @@
         <v>13.4</v>
       </c>
       <c r="F31" t="n">
-        <v>71562.048</v>
+        <v>3120.5167</v>
       </c>
       <c r="G31" t="n">
-        <v>13.13333333333334</v>
+        <v>13.12833333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C32" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D32" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E32" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="F32" t="n">
-        <v>139812.3311</v>
+        <v>71562.048</v>
       </c>
       <c r="G32" t="n">
-        <v>13.13500000000001</v>
+        <v>13.13333333333334</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C33" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="D33" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E33" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F33" t="n">
-        <v>187.1107</v>
+        <v>139812.3311</v>
       </c>
       <c r="G33" t="n">
-        <v>13.14000000000001</v>
+        <v>13.13500000000001</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C34" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D34" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E34" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>187.1107</v>
       </c>
       <c r="G34" t="n">
-        <v>13.14333333333334</v>
+        <v>13.14000000000001</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C35" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D35" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E35" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="F35" t="n">
-        <v>4672.3698</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="n">
-        <v>13.14166666666668</v>
+        <v>13.14333333333334</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F36" t="n">
-        <v>14793.8551</v>
+        <v>4672.3698</v>
       </c>
       <c r="G36" t="n">
         <v>13.14166666666668</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C37" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D37" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E37" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F37" t="n">
-        <v>38</v>
+        <v>14793.8551</v>
       </c>
       <c r="G37" t="n">
-        <v>13.14500000000001</v>
+        <v>13.14166666666668</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C38" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D38" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E38" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F38" t="n">
-        <v>14793.8551</v>
+        <v>38</v>
       </c>
       <c r="G38" t="n">
-        <v>13.15000000000001</v>
+        <v>13.14500000000001</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>13.4</v>
       </c>
       <c r="F39" t="n">
-        <v>22835.5073</v>
+        <v>14793.8551</v>
       </c>
       <c r="G39" t="n">
-        <v>13.15166666666668</v>
+        <v>13.15000000000001</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>13.4</v>
       </c>
       <c r="F40" t="n">
-        <v>114595.2121</v>
+        <v>22835.5073</v>
       </c>
       <c r="G40" t="n">
-        <v>13.15666666666668</v>
+        <v>13.15166666666668</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>13.4</v>
       </c>
       <c r="C41" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D41" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E41" t="n">
         <v>13.4</v>
       </c>
       <c r="F41" t="n">
-        <v>2190</v>
+        <v>114595.2121</v>
       </c>
       <c r="G41" t="n">
-        <v>13.16333333333334</v>
+        <v>13.15666666666668</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C42" t="n">
         <v>13.5</v>
@@ -1457,15 +1582,18 @@
         <v>13.5</v>
       </c>
       <c r="E42" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F42" t="n">
-        <v>164.5419</v>
+        <v>2190</v>
       </c>
       <c r="G42" t="n">
-        <v>13.17000000000001</v>
+        <v>13.16333333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>13.5</v>
       </c>
       <c r="F43" t="n">
-        <v>20000</v>
+        <v>164.5419</v>
       </c>
       <c r="G43" t="n">
-        <v>13.17666666666667</v>
+        <v>13.17000000000001</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C44" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D44" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E44" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="F44" t="n">
-        <v>174837.4114</v>
+        <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>13.18000000000001</v>
+        <v>13.17666666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C45" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D45" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E45" t="n">
         <v>13.2</v>
       </c>
       <c r="F45" t="n">
-        <v>173670.5875</v>
+        <v>174837.4114</v>
       </c>
       <c r="G45" t="n">
         <v>13.18000000000001</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="C46" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="D46" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="E46" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F46" t="n">
-        <v>38.7749</v>
+        <v>173670.5875</v>
       </c>
       <c r="G46" t="n">
-        <v>13.18666666666667</v>
+        <v>13.18000000000001</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C47" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D47" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E47" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F47" t="n">
-        <v>3636</v>
+        <v>38.7749</v>
       </c>
       <c r="G47" t="n">
-        <v>13.19166666666667</v>
+        <v>13.18666666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>13.3</v>
       </c>
       <c r="F48" t="n">
-        <v>26015.2235</v>
+        <v>3636</v>
       </c>
       <c r="G48" t="n">
-        <v>13.19666666666667</v>
+        <v>13.19166666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C49" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D49" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E49" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F49" t="n">
-        <v>138174.6315</v>
+        <v>26015.2235</v>
       </c>
       <c r="G49" t="n">
-        <v>13.20333333333334</v>
+        <v>13.19666666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="C50" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="D50" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="E50" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F50" t="n">
-        <v>38</v>
+        <v>138174.6315</v>
       </c>
       <c r="G50" t="n">
-        <v>13.21333333333334</v>
+        <v>13.20333333333334</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>13.4</v>
       </c>
       <c r="F51" t="n">
-        <v>1488.145</v>
+        <v>38</v>
       </c>
       <c r="G51" t="n">
-        <v>13.22000000000001</v>
+        <v>13.21333333333334</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C52" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D52" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E52" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F52" t="n">
-        <v>39</v>
+        <v>1488.145</v>
       </c>
       <c r="G52" t="n">
-        <v>13.23000000000001</v>
+        <v>13.22000000000001</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C53" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D53" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E53" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F53" t="n">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
-        <v>13.23833333333334</v>
+        <v>13.23000000000001</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C54" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D54" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E54" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F54" t="n">
-        <v>11108</v>
+        <v>444</v>
       </c>
       <c r="G54" t="n">
-        <v>13.24500000000001</v>
+        <v>13.23833333333334</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C55" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D55" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E55" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F55" t="n">
-        <v>22342.8623</v>
+        <v>11108</v>
       </c>
       <c r="G55" t="n">
-        <v>13.25166666666667</v>
+        <v>13.24500000000001</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C56" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D56" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E56" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F56" t="n">
-        <v>31456.25</v>
+        <v>22342.8623</v>
       </c>
       <c r="G56" t="n">
-        <v>13.25666666666667</v>
+        <v>13.25166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>13.3</v>
       </c>
       <c r="F57" t="n">
-        <v>147.8391</v>
+        <v>31456.25</v>
       </c>
       <c r="G57" t="n">
-        <v>13.26333333333334</v>
+        <v>13.25666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C58" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D58" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E58" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F58" t="n">
-        <v>15437.7168</v>
+        <v>147.8391</v>
       </c>
       <c r="G58" t="n">
-        <v>13.27166666666667</v>
+        <v>13.26333333333334</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>13.5</v>
       </c>
       <c r="C59" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D59" t="n">
         <v>13.5</v>
       </c>
       <c r="E59" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F59" t="n">
-        <v>95201.3615</v>
+        <v>15437.7168</v>
       </c>
       <c r="G59" t="n">
-        <v>13.27833333333334</v>
+        <v>13.27166666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C60" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D60" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E60" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F60" t="n">
-        <v>62045.1671</v>
+        <v>95201.3615</v>
       </c>
       <c r="G60" t="n">
-        <v>13.28166666666667</v>
+        <v>13.27833333333334</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C61" t="n">
         <v>13.3</v>
       </c>
       <c r="D61" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E61" t="n">
         <v>13.3</v>
       </c>
       <c r="F61" t="n">
-        <v>106719.1637</v>
+        <v>62045.1671</v>
       </c>
       <c r="G61" t="n">
-        <v>13.28666666666667</v>
+        <v>13.28166666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F62" t="n">
-        <v>400265.5886</v>
+        <v>106719.1637</v>
       </c>
       <c r="G62" t="n">
-        <v>13.29</v>
+        <v>13.28666666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="C63" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="D63" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="E63" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F63" t="n">
-        <v>38</v>
+        <v>400265.5886</v>
       </c>
       <c r="G63" t="n">
-        <v>13.29833333333334</v>
+        <v>13.29</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>13.5</v>
       </c>
       <c r="F64" t="n">
-        <v>2782.5861</v>
+        <v>38</v>
       </c>
       <c r="G64" t="n">
-        <v>13.30333333333334</v>
+        <v>13.29833333333334</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C65" t="n">
         <v>13.5</v>
       </c>
       <c r="D65" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E65" t="n">
         <v>13.5</v>
       </c>
       <c r="F65" t="n">
-        <v>27994.2543</v>
+        <v>2782.5861</v>
       </c>
       <c r="G65" t="n">
-        <v>13.30833333333334</v>
+        <v>13.30333333333334</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C66" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D66" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E66" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F66" t="n">
-        <v>32587.4113</v>
+        <v>27994.2543</v>
       </c>
       <c r="G66" t="n">
-        <v>13.31166666666667</v>
+        <v>13.30833333333334</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>13.4</v>
       </c>
       <c r="F67" t="n">
-        <v>107.8661</v>
+        <v>32587.4113</v>
       </c>
       <c r="G67" t="n">
-        <v>13.31666666666667</v>
+        <v>13.31166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C68" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D68" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E68" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F68" t="n">
-        <v>18573.3732</v>
+        <v>107.8661</v>
       </c>
       <c r="G68" t="n">
-        <v>13.31833333333333</v>
+        <v>13.31666666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>13.3</v>
       </c>
       <c r="F69" t="n">
-        <v>10602.3448</v>
+        <v>18573.3732</v>
       </c>
       <c r="G69" t="n">
-        <v>13.32166666666666</v>
+        <v>13.31833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F70" t="n">
-        <v>97</v>
+        <v>10602.3448</v>
       </c>
       <c r="G70" t="n">
-        <v>13.32833333333333</v>
+        <v>13.32166666666666</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>13.4</v>
       </c>
       <c r="C71" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D71" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E71" t="n">
         <v>13.4</v>
       </c>
       <c r="F71" t="n">
-        <v>149284.0491</v>
+        <v>97</v>
       </c>
       <c r="G71" t="n">
-        <v>13.33833333333333</v>
+        <v>13.32833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C72" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D72" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E72" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F72" t="n">
-        <v>132004.4748</v>
+        <v>149284.0491</v>
       </c>
       <c r="G72" t="n">
-        <v>13.35</v>
+        <v>13.33833333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>13.5</v>
       </c>
       <c r="C73" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D73" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E73" t="n">
         <v>13.5</v>
       </c>
       <c r="F73" t="n">
-        <v>851.1987</v>
+        <v>132004.4748</v>
       </c>
       <c r="G73" t="n">
-        <v>13.36</v>
+        <v>13.35</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C74" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D74" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E74" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>851.1987</v>
       </c>
       <c r="G74" t="n">
-        <v>13.37</v>
+        <v>13.36</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C75" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D75" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E75" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F75" t="n">
-        <v>28367</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>13.375</v>
+        <v>13.37</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>13.4</v>
       </c>
       <c r="F76" t="n">
-        <v>1514.1515</v>
+        <v>28367</v>
       </c>
       <c r="G76" t="n">
-        <v>13.37833333333333</v>
+        <v>13.375</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>13.4</v>
       </c>
       <c r="F77" t="n">
-        <v>5147.4464</v>
+        <v>1514.1515</v>
       </c>
       <c r="G77" t="n">
-        <v>13.38333333333333</v>
+        <v>13.37833333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C78" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D78" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E78" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>5147.4464</v>
       </c>
       <c r="G78" t="n">
-        <v>13.39</v>
+        <v>13.38333333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>13.6</v>
       </c>
       <c r="C79" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D79" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E79" t="n">
         <v>13.6</v>
       </c>
       <c r="F79" t="n">
-        <v>158321.2728</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>13.4</v>
+        <v>13.39</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>13.6</v>
       </c>
       <c r="C80" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D80" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E80" t="n">
         <v>13.6</v>
       </c>
       <c r="F80" t="n">
-        <v>13932.429</v>
+        <v>158321.2728</v>
       </c>
       <c r="G80" t="n">
-        <v>13.40666666666666</v>
+        <v>13.4</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C81" t="n">
         <v>13.6</v>
@@ -2471,15 +2713,18 @@
         <v>13.6</v>
       </c>
       <c r="E81" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F81" t="n">
-        <v>893.4126</v>
+        <v>13932.429</v>
       </c>
       <c r="G81" t="n">
-        <v>13.41166666666666</v>
+        <v>13.40666666666666</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,10 +2733,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C82" t="n">
         <v>13.6</v>
-      </c>
-      <c r="C82" t="n">
-        <v>13.5</v>
       </c>
       <c r="D82" t="n">
         <v>13.6</v>
@@ -2500,12 +2745,15 @@
         <v>13.5</v>
       </c>
       <c r="F82" t="n">
-        <v>100000</v>
+        <v>893.4126</v>
       </c>
       <c r="G82" t="n">
-        <v>13.415</v>
+        <v>13.41166666666666</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2765,24 @@
         <v>13.6</v>
       </c>
       <c r="C83" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D83" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E83" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F83" t="n">
-        <v>1973</v>
+        <v>100000</v>
       </c>
       <c r="G83" t="n">
-        <v>13.42</v>
+        <v>13.415</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C84" t="n">
         <v>13.7</v>
@@ -2549,15 +2800,18 @@
         <v>13.7</v>
       </c>
       <c r="E84" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F84" t="n">
-        <v>123693.7298</v>
+        <v>1973</v>
       </c>
       <c r="G84" t="n">
-        <v>13.425</v>
+        <v>13.42</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C85" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D85" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E85" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F85" t="n">
-        <v>181.5703</v>
+        <v>123693.7298</v>
       </c>
       <c r="G85" t="n">
-        <v>13.42833333333333</v>
+        <v>13.425</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>13.6</v>
       </c>
       <c r="F86" t="n">
-        <v>7334.6046</v>
+        <v>181.5703</v>
       </c>
       <c r="G86" t="n">
-        <v>13.43166666666667</v>
+        <v>13.42833333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>13.6</v>
       </c>
       <c r="F87" t="n">
-        <v>1734.264</v>
+        <v>7334.6046</v>
       </c>
       <c r="G87" t="n">
-        <v>13.435</v>
+        <v>13.43166666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>13.6</v>
       </c>
       <c r="C88" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D88" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E88" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F88" t="n">
-        <v>175871.662</v>
+        <v>1734.264</v>
       </c>
       <c r="G88" t="n">
-        <v>13.43833333333333</v>
+        <v>13.435</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C89" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D89" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E89" t="n">
         <v>13.5</v>
       </c>
       <c r="F89" t="n">
-        <v>108952.6309</v>
+        <v>175871.662</v>
       </c>
       <c r="G89" t="n">
         <v>13.43833333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>13.5</v>
       </c>
       <c r="C90" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D90" t="n">
         <v>13.5</v>
       </c>
       <c r="E90" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F90" t="n">
-        <v>331783.999</v>
+        <v>108952.6309</v>
       </c>
       <c r="G90" t="n">
         <v>13.43833333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C91" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D91" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E91" t="n">
         <v>13.3</v>
       </c>
       <c r="F91" t="n">
-        <v>11136.4043</v>
+        <v>331783.999</v>
       </c>
       <c r="G91" t="n">
-        <v>13.43666666666667</v>
+        <v>13.43833333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>13.3</v>
       </c>
       <c r="F92" t="n">
-        <v>182.594</v>
+        <v>11136.4043</v>
       </c>
       <c r="G92" t="n">
-        <v>13.43833333333333</v>
+        <v>13.43666666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>13.3</v>
       </c>
       <c r="F93" t="n">
-        <v>55000.949</v>
+        <v>182.594</v>
       </c>
       <c r="G93" t="n">
-        <v>13.435</v>
+        <v>13.43833333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C94" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D94" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E94" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F94" t="n">
-        <v>14925.3731</v>
+        <v>55000.949</v>
       </c>
       <c r="G94" t="n">
         <v>13.435</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C95" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D95" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E95" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F95" t="n">
-        <v>38</v>
+        <v>14925.3731</v>
       </c>
       <c r="G95" t="n">
-        <v>13.44</v>
+        <v>13.435</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>13.5</v>
       </c>
       <c r="F96" t="n">
-        <v>29162</v>
+        <v>38</v>
       </c>
       <c r="G96" t="n">
-        <v>13.44333333333333</v>
+        <v>13.44</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F97" t="n">
-        <v>38</v>
+        <v>29162</v>
       </c>
       <c r="G97" t="n">
-        <v>13.445</v>
+        <v>13.44333333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>13.6</v>
       </c>
       <c r="C98" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D98" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E98" t="n">
         <v>13.6</v>
       </c>
       <c r="F98" t="n">
-        <v>2741</v>
+        <v>38</v>
       </c>
       <c r="G98" t="n">
-        <v>13.45</v>
+        <v>13.445</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C99" t="n">
         <v>13.7</v>
       </c>
-      <c r="C99" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D99" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E99" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F99" t="n">
-        <v>110896.1824434783</v>
+        <v>2741</v>
       </c>
       <c r="G99" t="n">
-        <v>13.45666666666667</v>
+        <v>13.45</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>13.7</v>
       </c>
       <c r="C100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E100" t="n">
         <v>13.7</v>
       </c>
       <c r="F100" t="n">
-        <v>16307.0878</v>
+        <v>110896.1824434783</v>
       </c>
       <c r="G100" t="n">
-        <v>13.46166666666667</v>
+        <v>13.45666666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>13.7</v>
       </c>
       <c r="F101" t="n">
-        <v>43789.8618</v>
+        <v>16307.0878</v>
       </c>
       <c r="G101" t="n">
-        <v>13.465</v>
+        <v>13.46166666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>13.7</v>
       </c>
       <c r="F102" t="n">
-        <v>51761.297</v>
+        <v>43789.8618</v>
       </c>
       <c r="G102" t="n">
-        <v>13.46833333333334</v>
+        <v>13.465</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>13.7</v>
       </c>
       <c r="F103" t="n">
-        <v>113553.592</v>
+        <v>51761.297</v>
       </c>
       <c r="G103" t="n">
-        <v>13.47166666666667</v>
+        <v>13.46833333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>13.7</v>
       </c>
       <c r="F104" t="n">
-        <v>278778.4351</v>
+        <v>113553.592</v>
       </c>
       <c r="G104" t="n">
-        <v>13.47666666666667</v>
+        <v>13.47166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>13.7</v>
       </c>
       <c r="F105" t="n">
-        <v>42706.5727</v>
+        <v>278778.4351</v>
       </c>
       <c r="G105" t="n">
-        <v>13.485</v>
+        <v>13.47666666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C106" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D106" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E106" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F106" t="n">
-        <v>30000</v>
+        <v>42706.5727</v>
       </c>
       <c r="G106" t="n">
-        <v>13.48833333333334</v>
+        <v>13.485</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,21 +3461,24 @@
         <v>13.6</v>
       </c>
       <c r="C107" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D107" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E107" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F107" t="n">
-        <v>250718.038</v>
+        <v>30000</v>
       </c>
       <c r="G107" t="n">
-        <v>13.49500000000001</v>
+        <v>13.48833333333334</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C108" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D108" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E108" t="n">
         <v>13.5</v>
       </c>
       <c r="F108" t="n">
-        <v>43789.8618</v>
+        <v>250718.038</v>
       </c>
       <c r="G108" t="n">
-        <v>13.49833333333334</v>
+        <v>13.49500000000001</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,25 +3516,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C109" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D109" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E109" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F109" t="n">
-        <v>1053.1386</v>
+        <v>43789.8618</v>
       </c>
       <c r="G109" t="n">
-        <v>13.50666666666667</v>
+        <v>13.49833333333334</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C110" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D110" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E110" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F110" t="n">
-        <v>100</v>
+        <v>1053.1386</v>
       </c>
       <c r="G110" t="n">
-        <v>13.50833333333334</v>
+        <v>13.50666666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,13 +3586,16 @@
         <v>13.5</v>
       </c>
       <c r="F111" t="n">
-        <v>16049.9074</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>13.51000000000001</v>
+        <v>13.50833333333334</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3268,25 +3603,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C112" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D112" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E112" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F112" t="n">
-        <v>91109.6153</v>
+        <v>16049.9074</v>
       </c>
       <c r="G112" t="n">
-        <v>13.50833333333334</v>
+        <v>13.51000000000001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C113" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D113" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E113" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F113" t="n">
-        <v>60</v>
+        <v>91109.6153</v>
       </c>
       <c r="G113" t="n">
-        <v>13.51166666666668</v>
+        <v>13.50833333333334</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>13.6</v>
       </c>
       <c r="F114" t="n">
-        <v>645.4591</v>
+        <v>60</v>
       </c>
       <c r="G114" t="n">
-        <v>13.51666666666668</v>
+        <v>13.51166666666668</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C115" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D115" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E115" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F115" t="n">
-        <v>844956.3159</v>
+        <v>645.4591</v>
       </c>
       <c r="G115" t="n">
         <v>13.51666666666668</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,25 +3719,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C116" t="n">
         <v>13.4</v>
       </c>
       <c r="D116" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E116" t="n">
         <v>13.4</v>
       </c>
       <c r="F116" t="n">
-        <v>4539</v>
+        <v>844956.3159</v>
       </c>
       <c r="G116" t="n">
-        <v>13.51833333333334</v>
+        <v>13.51666666666668</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3398,25 +3748,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C117" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D117" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E117" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F117" t="n">
-        <v>36.7648</v>
+        <v>4539</v>
       </c>
       <c r="G117" t="n">
-        <v>13.52333333333334</v>
+        <v>13.51833333333334</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3424,25 +3777,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F118" t="n">
-        <v>30000</v>
+        <v>36.7648</v>
       </c>
       <c r="G118" t="n">
         <v>13.52333333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3462,13 +3818,16 @@
         <v>13.5</v>
       </c>
       <c r="F119" t="n">
-        <v>1043.0003</v>
+        <v>30000</v>
       </c>
       <c r="G119" t="n">
-        <v>13.52500000000001</v>
+        <v>13.52333333333334</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3476,25 +3835,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F120" t="n">
-        <v>37.3135</v>
+        <v>1043.0003</v>
       </c>
       <c r="G120" t="n">
-        <v>13.52666666666668</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C121" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D121" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E121" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F121" t="n">
-        <v>34060.4009</v>
+        <v>37.3135</v>
       </c>
       <c r="G121" t="n">
         <v>13.52666666666668</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C122" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D122" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E122" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F122" t="n">
-        <v>38</v>
+        <v>34060.4009</v>
       </c>
       <c r="G122" t="n">
-        <v>13.53000000000001</v>
+        <v>13.52666666666668</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>13.4</v>
       </c>
       <c r="F123" t="n">
-        <v>15970.7789</v>
+        <v>38</v>
       </c>
       <c r="G123" t="n">
-        <v>13.52833333333334</v>
+        <v>13.53000000000001</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>13.4</v>
       </c>
       <c r="F124" t="n">
-        <v>15528.9834</v>
+        <v>15970.7789</v>
       </c>
       <c r="G124" t="n">
-        <v>13.52666666666668</v>
+        <v>13.52833333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>13.4</v>
       </c>
       <c r="F125" t="n">
-        <v>38.3652</v>
+        <v>15528.9834</v>
       </c>
       <c r="G125" t="n">
-        <v>13.52500000000001</v>
+        <v>13.52666666666668</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>13.4</v>
       </c>
       <c r="F126" t="n">
-        <v>13450.7518</v>
+        <v>38.3652</v>
       </c>
       <c r="G126" t="n">
         <v>13.52500000000001</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>13.4</v>
       </c>
       <c r="F127" t="n">
-        <v>2592.4016</v>
+        <v>13450.7518</v>
       </c>
       <c r="G127" t="n">
         <v>13.52500000000001</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>13.4</v>
       </c>
       <c r="F128" t="n">
-        <v>107407.5984</v>
+        <v>2592.4016</v>
       </c>
       <c r="G128" t="n">
-        <v>13.52666666666668</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,21 +4099,24 @@
         <v>13.4</v>
       </c>
       <c r="C129" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D129" t="n">
         <v>13.4</v>
       </c>
       <c r="E129" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F129" t="n">
-        <v>10000</v>
+        <v>107407.5984</v>
       </c>
       <c r="G129" t="n">
         <v>13.52666666666668</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C130" t="n">
         <v>13.3</v>
       </c>
       <c r="D130" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E130" t="n">
         <v>13.3</v>
       </c>
       <c r="F130" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G130" t="n">
-        <v>13.52500000000001</v>
+        <v>13.52666666666668</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>13.3</v>
       </c>
       <c r="C131" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D131" t="n">
         <v>13.3</v>
       </c>
       <c r="E131" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F131" t="n">
-        <v>93238.67080000001</v>
+        <v>90000</v>
       </c>
       <c r="G131" t="n">
-        <v>13.52000000000001</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C132" t="n">
         <v>13.2</v>
       </c>
       <c r="D132" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E132" t="n">
         <v>13.2</v>
       </c>
       <c r="F132" t="n">
-        <v>178.03</v>
+        <v>93238.67080000001</v>
       </c>
       <c r="G132" t="n">
-        <v>13.51333333333334</v>
+        <v>13.52000000000001</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>13.2</v>
       </c>
       <c r="F133" t="n">
-        <v>225.65</v>
+        <v>178.03</v>
       </c>
       <c r="G133" t="n">
-        <v>13.50833333333335</v>
+        <v>13.51333333333334</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>13.2</v>
       </c>
       <c r="F134" t="n">
-        <v>403.68</v>
+        <v>225.65</v>
       </c>
       <c r="G134" t="n">
-        <v>13.50166666666668</v>
+        <v>13.50833333333335</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>13.2</v>
       </c>
       <c r="F135" t="n">
-        <v>90765.9391</v>
+        <v>403.68</v>
       </c>
       <c r="G135" t="n">
-        <v>13.49833333333335</v>
+        <v>13.50166666666668</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>13.2</v>
       </c>
       <c r="C136" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D136" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E136" t="n">
         <v>13.2</v>
       </c>
       <c r="F136" t="n">
-        <v>13310.5143</v>
+        <v>90765.9391</v>
       </c>
       <c r="G136" t="n">
-        <v>13.49666666666668</v>
+        <v>13.49833333333335</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C137" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="D137" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="E137" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F137" t="n">
-        <v>9174.790000000001</v>
+        <v>13310.5143</v>
       </c>
       <c r="G137" t="n">
-        <v>13.49166666666668</v>
+        <v>13.49666666666668</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>13.1</v>
       </c>
       <c r="F138" t="n">
-        <v>417966.5045</v>
+        <v>9174.790000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>13.48333333333335</v>
+        <v>13.49166666666668</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>13.1</v>
       </c>
       <c r="F139" t="n">
-        <v>46733.9056</v>
+        <v>417966.5045</v>
       </c>
       <c r="G139" t="n">
-        <v>13.47166666666668</v>
+        <v>13.48333333333335</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>13.1</v>
       </c>
       <c r="F140" t="n">
-        <v>47680.0403</v>
+        <v>46733.9056</v>
       </c>
       <c r="G140" t="n">
-        <v>13.46333333333335</v>
+        <v>13.47166666666668</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>13.1</v>
       </c>
       <c r="F141" t="n">
-        <v>13490</v>
+        <v>47680.0403</v>
       </c>
       <c r="G141" t="n">
-        <v>13.45500000000001</v>
+        <v>13.46333333333335</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>13.1</v>
       </c>
       <c r="F142" t="n">
-        <v>2217.483</v>
+        <v>13490</v>
       </c>
       <c r="G142" t="n">
-        <v>13.44833333333335</v>
+        <v>13.45500000000001</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C143" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D143" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E143" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F143" t="n">
-        <v>63399.977</v>
+        <v>2217.483</v>
       </c>
       <c r="G143" t="n">
-        <v>13.43666666666668</v>
+        <v>13.44833333333335</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C144" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D144" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E144" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F144" t="n">
-        <v>1368.2347</v>
+        <v>63399.977</v>
       </c>
       <c r="G144" t="n">
-        <v>13.42666666666668</v>
+        <v>13.43666666666668</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,21 +4563,24 @@
         <v>13.1</v>
       </c>
       <c r="C145" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D145" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E145" t="n">
         <v>13.1</v>
       </c>
       <c r="F145" t="n">
-        <v>124098.409</v>
+        <v>1368.2347</v>
       </c>
       <c r="G145" t="n">
-        <v>13.42000000000001</v>
+        <v>13.42666666666668</v>
       </c>
       <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="C146" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="D146" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="E146" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="F146" t="n">
-        <v>6171.2593</v>
+        <v>124098.409</v>
       </c>
       <c r="G146" t="n">
-        <v>13.41666666666668</v>
+        <v>13.42000000000001</v>
       </c>
       <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C147" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D147" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E147" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F147" t="n">
-        <v>64744.4701</v>
+        <v>6171.2593</v>
       </c>
       <c r="G147" t="n">
-        <v>13.41500000000001</v>
+        <v>13.41666666666668</v>
       </c>
       <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4647,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C148" t="n">
         <v>13.5</v>
@@ -4213,15 +4656,18 @@
         <v>13.5</v>
       </c>
       <c r="E148" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F148" t="n">
-        <v>1710.7264</v>
+        <v>64744.4701</v>
       </c>
       <c r="G148" t="n">
-        <v>13.41166666666668</v>
+        <v>13.41500000000001</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>13.5</v>
       </c>
       <c r="F149" t="n">
-        <v>160.6982</v>
+        <v>1710.7264</v>
       </c>
       <c r="G149" t="n">
         <v>13.41166666666668</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>13.5</v>
       </c>
       <c r="F150" t="n">
-        <v>8021.6621</v>
+        <v>160.6982</v>
       </c>
       <c r="G150" t="n">
-        <v>13.41333333333335</v>
+        <v>13.41166666666668</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C151" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D151" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E151" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F151" t="n">
-        <v>37.3135</v>
+        <v>8021.6621</v>
       </c>
       <c r="G151" t="n">
-        <v>13.41500000000001</v>
+        <v>13.41333333333335</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C152" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D152" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E152" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F152" t="n">
-        <v>38837.594</v>
+        <v>37.3135</v>
       </c>
       <c r="G152" t="n">
         <v>13.41500000000001</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>13.3</v>
       </c>
       <c r="F153" t="n">
-        <v>150801.8373</v>
+        <v>38837.594</v>
       </c>
       <c r="G153" t="n">
         <v>13.41500000000001</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C154" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D154" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E154" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F154" t="n">
-        <v>40.3955</v>
+        <v>150801.8373</v>
       </c>
       <c r="G154" t="n">
-        <v>13.41166666666668</v>
+        <v>13.41500000000001</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C155" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D155" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E155" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F155" t="n">
-        <v>37.594</v>
+        <v>40.3955</v>
       </c>
       <c r="G155" t="n">
-        <v>13.40833333333335</v>
+        <v>13.41166666666668</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C156" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D156" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E156" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F156" t="n">
-        <v>6836.5615</v>
+        <v>37.594</v>
       </c>
       <c r="G156" t="n">
-        <v>13.40333333333335</v>
+        <v>13.40833333333335</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C157" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D157" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E157" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F157" t="n">
-        <v>789.4736992481203</v>
+        <v>6836.5615</v>
       </c>
       <c r="G157" t="n">
-        <v>13.39833333333335</v>
+        <v>13.40333333333335</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C158" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D158" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E158" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F158" t="n">
-        <v>38</v>
+        <v>789.4736992481203</v>
       </c>
       <c r="G158" t="n">
-        <v>13.39333333333335</v>
+        <v>13.39833333333335</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C159" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D159" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E159" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F159" t="n">
-        <v>20000</v>
+        <v>38</v>
       </c>
       <c r="G159" t="n">
-        <v>13.38833333333335</v>
+        <v>13.39333333333335</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,21 +4998,24 @@
         <v>13.3</v>
       </c>
       <c r="C160" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D160" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E160" t="n">
         <v>13.3</v>
       </c>
       <c r="F160" t="n">
-        <v>44354.9714</v>
+        <v>20000</v>
       </c>
       <c r="G160" t="n">
-        <v>13.38166666666668</v>
+        <v>13.38833333333335</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C161" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D161" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E161" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F161" t="n">
-        <v>37.3135</v>
+        <v>44354.9714</v>
       </c>
       <c r="G161" t="n">
-        <v>13.37666666666668</v>
+        <v>13.38166666666668</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C162" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D162" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E162" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F162" t="n">
-        <v>21165.8727</v>
+        <v>37.3135</v>
       </c>
       <c r="G162" t="n">
-        <v>13.37000000000001</v>
+        <v>13.37666666666668</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C163" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D163" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E163" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F163" t="n">
-        <v>35341.5653</v>
+        <v>21165.8727</v>
       </c>
       <c r="G163" t="n">
-        <v>13.36166666666668</v>
+        <v>13.37000000000001</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>13.2</v>
       </c>
       <c r="F164" t="n">
-        <v>11000</v>
+        <v>35341.5653</v>
       </c>
       <c r="G164" t="n">
-        <v>13.35333333333334</v>
+        <v>13.36166666666668</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>13.2</v>
       </c>
       <c r="F165" t="n">
-        <v>876</v>
+        <v>11000</v>
       </c>
       <c r="G165" t="n">
-        <v>13.34500000000001</v>
+        <v>13.35333333333334</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C166" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D166" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E166" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F166" t="n">
-        <v>49875</v>
+        <v>876</v>
       </c>
       <c r="G166" t="n">
-        <v>13.33500000000001</v>
+        <v>13.34500000000001</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C167" t="n">
         <v>13</v>
       </c>
       <c r="D167" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
       </c>
       <c r="F167" t="n">
-        <v>46217.6883</v>
+        <v>49875</v>
       </c>
       <c r="G167" t="n">
-        <v>13.32333333333334</v>
+        <v>13.33500000000001</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C168" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D168" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E168" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F168" t="n">
-        <v>7430.4677</v>
+        <v>46217.6883</v>
       </c>
       <c r="G168" t="n">
-        <v>13.31833333333334</v>
+        <v>13.32333333333334</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>13.2</v>
       </c>
       <c r="F169" t="n">
-        <v>11588.1497</v>
+        <v>7430.4677</v>
       </c>
       <c r="G169" t="n">
-        <v>13.31000000000001</v>
+        <v>13.31833333333334</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>13.2</v>
       </c>
       <c r="F170" t="n">
-        <v>21039.2976</v>
+        <v>11588.1497</v>
       </c>
       <c r="G170" t="n">
-        <v>13.30500000000001</v>
+        <v>13.31000000000001</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>13.2</v>
       </c>
       <c r="F171" t="n">
-        <v>12409.9533</v>
+        <v>21039.2976</v>
       </c>
       <c r="G171" t="n">
-        <v>13.30000000000001</v>
+        <v>13.30500000000001</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>13.2</v>
       </c>
       <c r="F172" t="n">
-        <v>16279.0127</v>
+        <v>12409.9533</v>
       </c>
       <c r="G172" t="n">
-        <v>13.29666666666668</v>
+        <v>13.30000000000001</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4866,12 +5384,15 @@
         <v>13.2</v>
       </c>
       <c r="F173" t="n">
-        <v>7556.8654</v>
+        <v>16279.0127</v>
       </c>
       <c r="G173" t="n">
-        <v>13.29000000000001</v>
+        <v>13.29666666666668</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>13.2</v>
       </c>
       <c r="F174" t="n">
-        <v>23581.8733</v>
+        <v>7556.8654</v>
       </c>
       <c r="G174" t="n">
-        <v>13.28333333333334</v>
+        <v>13.29000000000001</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C175" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D175" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E175" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F175" t="n">
-        <v>26324.8695</v>
+        <v>23581.8733</v>
       </c>
       <c r="G175" t="n">
-        <v>13.27666666666668</v>
+        <v>13.28333333333334</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C176" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D176" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
       </c>
       <c r="F176" t="n">
-        <v>68102.64659999999</v>
+        <v>26324.8695</v>
       </c>
       <c r="G176" t="n">
-        <v>13.27166666666668</v>
+        <v>13.27666666666668</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4967,15 +5497,18 @@
         <v>13.1</v>
       </c>
       <c r="E177" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F177" t="n">
-        <v>8901.8552</v>
+        <v>68102.64659999999</v>
       </c>
       <c r="G177" t="n">
-        <v>13.26333333333335</v>
+        <v>13.27166666666668</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,12 +5529,15 @@
         <v>13.1</v>
       </c>
       <c r="F178" t="n">
-        <v>1526.717557251908</v>
+        <v>8901.8552</v>
       </c>
       <c r="G178" t="n">
-        <v>13.25666666666668</v>
+        <v>13.26333333333335</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C179" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D179" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E179" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F179" t="n">
-        <v>530546.3495</v>
+        <v>1526.717557251908</v>
       </c>
       <c r="G179" t="n">
-        <v>13.24500000000001</v>
+        <v>13.25666666666668</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D180" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E180" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F180" t="n">
-        <v>150000</v>
+        <v>530546.3495</v>
       </c>
       <c r="G180" t="n">
-        <v>13.23333333333335</v>
+        <v>13.24500000000001</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C181" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D181" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E181" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F181" t="n">
-        <v>290</v>
+        <v>150000</v>
       </c>
       <c r="G181" t="n">
-        <v>13.22500000000001</v>
+        <v>13.23333333333335</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C182" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D182" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E182" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F182" t="n">
-        <v>65263.2353</v>
+        <v>290</v>
       </c>
       <c r="G182" t="n">
-        <v>13.21333333333335</v>
+        <v>13.22500000000001</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5117,21 +5665,24 @@
         <v>12.9</v>
       </c>
       <c r="C183" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D183" t="n">
         <v>12.9</v>
       </c>
       <c r="E183" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F183" t="n">
-        <v>3491.2284</v>
+        <v>65263.2353</v>
       </c>
       <c r="G183" t="n">
-        <v>13.20333333333335</v>
+        <v>13.21333333333335</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5143,21 +5694,24 @@
         <v>12.9</v>
       </c>
       <c r="C184" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D184" t="n">
         <v>12.9</v>
       </c>
       <c r="E184" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F184" t="n">
-        <v>3570.5361</v>
+        <v>3491.2284</v>
       </c>
       <c r="G184" t="n">
-        <v>13.19166666666668</v>
+        <v>13.20333333333335</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C185" t="n">
         <v>12.7</v>
       </c>
       <c r="D185" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E185" t="n">
         <v>12.7</v>
       </c>
       <c r="F185" t="n">
-        <v>100</v>
+        <v>3570.5361</v>
       </c>
       <c r="G185" t="n">
-        <v>13.18000000000002</v>
+        <v>13.19166666666668</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C186" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D186" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E186" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F186" t="n">
-        <v>7383.831</v>
+        <v>100</v>
       </c>
       <c r="G186" t="n">
-        <v>13.17000000000002</v>
+        <v>13.18000000000002</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C187" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D187" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E187" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F187" t="n">
-        <v>38.7597</v>
+        <v>7383.831</v>
       </c>
       <c r="G187" t="n">
-        <v>13.16166666666668</v>
+        <v>13.17000000000002</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>12.9</v>
       </c>
       <c r="F188" t="n">
-        <v>1091.4728</v>
+        <v>38.7597</v>
       </c>
       <c r="G188" t="n">
-        <v>13.15333333333335</v>
+        <v>13.16166666666668</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,12 +5848,15 @@
         <v>12.9</v>
       </c>
       <c r="F189" t="n">
-        <v>334</v>
+        <v>1091.4728</v>
       </c>
       <c r="G189" t="n">
-        <v>13.14666666666668</v>
+        <v>13.15333333333335</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C190" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D190" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E190" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F190" t="n">
-        <v>1355.8951</v>
+        <v>334</v>
       </c>
       <c r="G190" t="n">
-        <v>13.13833333333335</v>
+        <v>13.14666666666668</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C191" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D191" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E191" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F191" t="n">
-        <v>123</v>
+        <v>1355.8951</v>
       </c>
       <c r="G191" t="n">
-        <v>13.13333333333335</v>
+        <v>13.13833333333335</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>12.9</v>
       </c>
       <c r="F192" t="n">
-        <v>843</v>
+        <v>123</v>
       </c>
       <c r="G192" t="n">
-        <v>13.12833333333335</v>
+        <v>13.13333333333335</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>12.9</v>
       </c>
       <c r="F193" t="n">
-        <v>2000</v>
+        <v>843</v>
       </c>
       <c r="G193" t="n">
-        <v>13.12333333333335</v>
+        <v>13.12833333333335</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5403,21 +5984,24 @@
         <v>12.9</v>
       </c>
       <c r="C194" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D194" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E194" t="n">
         <v>12.9</v>
       </c>
       <c r="F194" t="n">
-        <v>15039.4728</v>
+        <v>2000</v>
       </c>
       <c r="G194" t="n">
-        <v>13.12000000000001</v>
+        <v>13.12333333333335</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5429,21 +6013,24 @@
         <v>12.9</v>
       </c>
       <c r="C195" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D195" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E195" t="n">
         <v>12.9</v>
       </c>
       <c r="F195" t="n">
-        <v>7732.6056</v>
+        <v>15039.4728</v>
       </c>
       <c r="G195" t="n">
-        <v>13.11500000000001</v>
+        <v>13.12000000000001</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>12.9</v>
       </c>
       <c r="F196" t="n">
-        <v>41641.684</v>
+        <v>7732.6056</v>
       </c>
       <c r="G196" t="n">
-        <v>13.10833333333334</v>
+        <v>13.11500000000001</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C197" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D197" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E197" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F197" t="n">
-        <v>1642.9203</v>
+        <v>41641.684</v>
       </c>
       <c r="G197" t="n">
-        <v>13.10666666666668</v>
+        <v>13.10833333333334</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C198" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D198" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E198" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F198" t="n">
-        <v>34584.6965</v>
+        <v>1642.9203</v>
       </c>
       <c r="G198" t="n">
-        <v>13.10333333333334</v>
+        <v>13.10666666666668</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>12.9</v>
       </c>
       <c r="F199" t="n">
-        <v>19800.4159</v>
+        <v>34584.6965</v>
       </c>
       <c r="G199" t="n">
-        <v>13.10000000000001</v>
+        <v>13.10333333333334</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C200" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D200" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E200" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F200" t="n">
-        <v>1314</v>
+        <v>19800.4159</v>
       </c>
       <c r="G200" t="n">
-        <v>13.09833333333334</v>
+        <v>13.10000000000001</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>13</v>
       </c>
       <c r="F201" t="n">
-        <v>473351.4812</v>
+        <v>1314</v>
       </c>
       <c r="G201" t="n">
-        <v>13.09666666666667</v>
+        <v>13.09833333333334</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C202" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D202" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E202" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F202" t="n">
-        <v>134260.6841</v>
+        <v>473351.4812</v>
       </c>
       <c r="G202" t="n">
-        <v>13.09333333333334</v>
+        <v>13.09666666666667</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C203" t="n">
         <v>12.9</v>
       </c>
       <c r="D203" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E203" t="n">
         <v>12.9</v>
       </c>
       <c r="F203" t="n">
-        <v>91106.5785</v>
+        <v>134260.6841</v>
       </c>
       <c r="G203" t="n">
-        <v>13.09166666666667</v>
+        <v>13.09333333333334</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,21 +6274,24 @@
         <v>13</v>
       </c>
       <c r="C204" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D204" t="n">
         <v>13</v>
       </c>
       <c r="E204" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F204" t="n">
-        <v>39</v>
+        <v>91106.5785</v>
       </c>
       <c r="G204" t="n">
-        <v>13.09000000000001</v>
+        <v>13.09166666666667</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C205" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D205" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E205" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F205" t="n">
-        <v>138908.5552</v>
+        <v>39</v>
       </c>
       <c r="G205" t="n">
-        <v>13.08500000000001</v>
+        <v>13.09000000000001</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C206" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D206" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E206" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F206" t="n">
-        <v>69180</v>
+        <v>138908.5552</v>
       </c>
       <c r="G206" t="n">
-        <v>13.07833333333334</v>
+        <v>13.08500000000001</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>13</v>
       </c>
       <c r="F207" t="n">
-        <v>4000</v>
+        <v>69180</v>
       </c>
       <c r="G207" t="n">
-        <v>13.07000000000001</v>
+        <v>13.07833333333334</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5776,12 +6399,15 @@
         <v>13</v>
       </c>
       <c r="F208" t="n">
-        <v>95</v>
+        <v>4000</v>
       </c>
       <c r="G208" t="n">
-        <v>13.06166666666667</v>
+        <v>13.07000000000001</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C209" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D209" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F209" t="n">
-        <v>131528.5681</v>
+        <v>95</v>
       </c>
       <c r="G209" t="n">
-        <v>13.05000000000001</v>
+        <v>13.06166666666667</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C210" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D210" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E210" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F210" t="n">
-        <v>39</v>
+        <v>131528.5681</v>
       </c>
       <c r="G210" t="n">
-        <v>13.04</v>
+        <v>13.05000000000001</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C211" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D211" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E211" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F211" t="n">
-        <v>39.0625</v>
+        <v>39</v>
       </c>
       <c r="G211" t="n">
-        <v>13.03</v>
+        <v>13.04</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5871,21 +6506,24 @@
         <v>12.8</v>
       </c>
       <c r="C212" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D212" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E212" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F212" t="n">
-        <v>223510.0642</v>
+        <v>39.0625</v>
       </c>
       <c r="G212" t="n">
-        <v>13.02000000000001</v>
+        <v>13.03</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C213" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D213" t="n">
         <v>12.9</v>
       </c>
       <c r="E213" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F213" t="n">
-        <v>4360.6102</v>
+        <v>223510.0642</v>
       </c>
       <c r="G213" t="n">
-        <v>13.01333333333334</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C214" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D214" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E214" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F214" t="n">
-        <v>213</v>
+        <v>4360.6102</v>
       </c>
       <c r="G214" t="n">
-        <v>13.01166666666667</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5949,21 +6593,24 @@
         <v>13</v>
       </c>
       <c r="C215" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D215" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
       </c>
       <c r="F215" t="n">
-        <v>38365.6251</v>
+        <v>213</v>
       </c>
       <c r="G215" t="n">
-        <v>13.00666666666667</v>
+        <v>13.01166666666667</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>13</v>
       </c>
       <c r="F216" t="n">
-        <v>1739.766638461538</v>
+        <v>38365.6251</v>
       </c>
       <c r="G216" t="n">
-        <v>13.00333333333334</v>
+        <v>13.00666666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F217" t="n">
-        <v>91.0802</v>
+        <v>1739.766638461538</v>
       </c>
       <c r="G217" t="n">
-        <v>12.99666666666667</v>
+        <v>13.00333333333334</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>12.9</v>
       </c>
       <c r="F218" t="n">
-        <v>23902.7963</v>
+        <v>91.0802</v>
       </c>
       <c r="G218" t="n">
-        <v>12.98833333333334</v>
+        <v>12.99666666666667</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6062,12 +6718,15 @@
         <v>12.9</v>
       </c>
       <c r="F219" t="n">
-        <v>30354.8344</v>
+        <v>23902.7963</v>
       </c>
       <c r="G219" t="n">
-        <v>12.97833333333334</v>
+        <v>12.98833333333334</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C220" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D220" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E220" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F220" t="n">
-        <v>128911.8383</v>
+        <v>30354.8344</v>
       </c>
       <c r="G220" t="n">
-        <v>12.97000000000001</v>
+        <v>12.97833333333334</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C221" t="n">
         <v>12.8</v>
       </c>
       <c r="D221" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E221" t="n">
         <v>12.8</v>
       </c>
       <c r="F221" t="n">
-        <v>10572.6314</v>
+        <v>128911.8383</v>
       </c>
       <c r="G221" t="n">
-        <v>12.96000000000001</v>
+        <v>12.97000000000001</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C222" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D222" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E222" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F222" t="n">
-        <v>775.1937984496124</v>
+        <v>10572.6314</v>
       </c>
       <c r="G222" t="n">
-        <v>12.95333333333334</v>
+        <v>12.96000000000001</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C223" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D223" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E223" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F223" t="n">
-        <v>804.0667</v>
+        <v>775.1937984496124</v>
       </c>
       <c r="G223" t="n">
-        <v>12.95000000000001</v>
+        <v>12.95333333333334</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>13</v>
       </c>
       <c r="F224" t="n">
-        <v>131</v>
+        <v>804.0667</v>
       </c>
       <c r="G224" t="n">
-        <v>12.94666666666667</v>
+        <v>12.95000000000001</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6212,18 +6886,21 @@
         <v>13</v>
       </c>
       <c r="D225" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
       </c>
       <c r="F225" t="n">
-        <v>70713.88499999999</v>
+        <v>131</v>
       </c>
       <c r="G225" t="n">
-        <v>12.94333333333334</v>
+        <v>12.94666666666667</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6238,18 +6915,21 @@
         <v>13</v>
       </c>
       <c r="D226" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
       </c>
       <c r="F226" t="n">
-        <v>99778.65399999999</v>
+        <v>70713.88499999999</v>
       </c>
       <c r="G226" t="n">
         <v>12.94333333333334</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C227" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D227" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E227" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F227" t="n">
-        <v>41</v>
+        <v>99778.65399999999</v>
       </c>
       <c r="G227" t="n">
-        <v>12.945</v>
+        <v>12.94333333333334</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C228" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D228" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E228" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F228" t="n">
-        <v>38365.6251</v>
+        <v>41</v>
       </c>
       <c r="G228" t="n">
-        <v>12.94</v>
+        <v>12.945</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C229" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D229" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E229" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F229" t="n">
-        <v>159144.6402</v>
+        <v>38365.6251</v>
       </c>
       <c r="G229" t="n">
-        <v>12.93833333333334</v>
+        <v>12.94</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6348,12 +7037,15 @@
         <v>13.1</v>
       </c>
       <c r="F230" t="n">
-        <v>762362.1868</v>
+        <v>159144.6402</v>
       </c>
       <c r="G230" t="n">
-        <v>12.93666666666667</v>
+        <v>12.93833333333334</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,12 +7066,15 @@
         <v>13.1</v>
       </c>
       <c r="F231" t="n">
-        <v>158028.9411</v>
+        <v>762362.1868</v>
       </c>
       <c r="G231" t="n">
-        <v>12.935</v>
+        <v>12.93666666666667</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6400,12 +7095,15 @@
         <v>13.1</v>
       </c>
       <c r="F232" t="n">
-        <v>166.9054</v>
+        <v>158028.9411</v>
       </c>
       <c r="G232" t="n">
-        <v>12.93333333333334</v>
+        <v>12.935</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C233" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D233" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E233" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F233" t="n">
-        <v>354961.7014</v>
+        <v>166.9054</v>
       </c>
       <c r="G233" t="n">
-        <v>12.935</v>
+        <v>12.93333333333334</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C234" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="D234" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="E234" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F234" t="n">
-        <v>109632.8711</v>
+        <v>354961.7014</v>
       </c>
       <c r="G234" t="n">
-        <v>12.93333333333333</v>
+        <v>12.935</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="C235" t="n">
-        <v>14</v>
+        <v>13.1</v>
       </c>
       <c r="D235" t="n">
-        <v>14.1</v>
+        <v>13.1</v>
       </c>
       <c r="E235" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="F235" t="n">
-        <v>1788592.2063</v>
+        <v>109632.8711</v>
       </c>
       <c r="G235" t="n">
-        <v>12.95</v>
+        <v>12.93333333333333</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="C236" t="n">
         <v>14</v>
       </c>
       <c r="D236" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E236" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="F236" t="n">
-        <v>986425.4028</v>
+        <v>1788592.2063</v>
       </c>
       <c r="G236" t="n">
-        <v>12.965</v>
+        <v>12.95</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6521,7 +7231,7 @@
         <v>14</v>
       </c>
       <c r="C237" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D237" t="n">
         <v>14</v>
@@ -6530,12 +7240,15 @@
         <v>13.9</v>
       </c>
       <c r="F237" t="n">
-        <v>152954.6631</v>
+        <v>986425.4028</v>
       </c>
       <c r="G237" t="n">
-        <v>12.97833333333333</v>
+        <v>12.965</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,25 +7257,28 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>14</v>
+      </c>
+      <c r="C238" t="n">
         <v>13.9</v>
       </c>
-      <c r="C238" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D238" t="n">
+        <v>14</v>
+      </c>
+      <c r="E238" t="n">
         <v>13.9</v>
       </c>
-      <c r="E238" t="n">
-        <v>13.8</v>
-      </c>
       <c r="F238" t="n">
-        <v>387862</v>
+        <v>152954.6631</v>
       </c>
       <c r="G238" t="n">
-        <v>12.99</v>
+        <v>12.97833333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -6570,25 +7286,28 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C239" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D239" t="n">
         <v>13.9</v>
       </c>
-      <c r="D239" t="n">
-        <v>14.4</v>
-      </c>
       <c r="E239" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F239" t="n">
-        <v>1143444.0298</v>
+        <v>387862</v>
       </c>
       <c r="G239" t="n">
-        <v>13.00833333333333</v>
+        <v>12.99</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C240" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="D240" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="E240" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F240" t="n">
-        <v>248143.3218</v>
+        <v>1143444.0298</v>
       </c>
       <c r="G240" t="n">
-        <v>13.03333333333333</v>
+        <v>13.00833333333333</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,7 +7344,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C241" t="n">
         <v>14.2</v>
@@ -6631,15 +7353,18 @@
         <v>14.2</v>
       </c>
       <c r="E241" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="F241" t="n">
-        <v>410938.1807</v>
+        <v>248143.3218</v>
       </c>
       <c r="G241" t="n">
-        <v>13.05666666666667</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6651,21 +7376,24 @@
         <v>14.2</v>
       </c>
       <c r="C242" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D242" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="E242" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F242" t="n">
-        <v>1407902.0964</v>
+        <v>410938.1807</v>
       </c>
       <c r="G242" t="n">
-        <v>13.07833333333333</v>
+        <v>13.05666666666667</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C243" t="n">
         <v>14</v>
       </c>
-      <c r="C243" t="n">
-        <v>14.5</v>
-      </c>
       <c r="D243" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E243" t="n">
         <v>14</v>
       </c>
       <c r="F243" t="n">
-        <v>1352515.6449</v>
+        <v>1407902.0964</v>
       </c>
       <c r="G243" t="n">
-        <v>13.10666666666667</v>
+        <v>13.07833333333333</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>14</v>
+      </c>
+      <c r="C244" t="n">
         <v>14.5</v>
       </c>
-      <c r="C244" t="n">
-        <v>14.7</v>
-      </c>
       <c r="D244" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E244" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="F244" t="n">
-        <v>1132722.7126</v>
+        <v>1352515.6449</v>
       </c>
       <c r="G244" t="n">
-        <v>13.14</v>
+        <v>13.10666666666667</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D245" t="n">
         <v>14.9</v>
       </c>
-      <c r="C245" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D245" t="n">
-        <v>15.1</v>
-      </c>
       <c r="E245" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F245" t="n">
-        <v>1098903.28619927</v>
+        <v>1132722.7126</v>
       </c>
       <c r="G245" t="n">
-        <v>13.18</v>
+        <v>13.14</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C246" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D246" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="E246" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F246" t="n">
-        <v>1940210.6911</v>
+        <v>1098903.28619927</v>
       </c>
       <c r="G246" t="n">
-        <v>13.22333333333333</v>
+        <v>13.18</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="C247" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D247" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E247" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="F247" t="n">
-        <v>1257459.7989</v>
+        <v>1940210.6911</v>
       </c>
       <c r="G247" t="n">
-        <v>13.26166666666667</v>
+        <v>13.22333333333333</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C248" t="n">
         <v>15.2</v>
       </c>
-      <c r="C248" t="n">
-        <v>15.3</v>
-      </c>
       <c r="D248" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E248" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F248" t="n">
-        <v>793699.6988</v>
+        <v>1257459.7989</v>
       </c>
       <c r="G248" t="n">
-        <v>13.30166666666667</v>
+        <v>13.26166666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C249" t="n">
         <v>15.3</v>
       </c>
-      <c r="C249" t="n">
-        <v>15.6</v>
-      </c>
       <c r="D249" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E249" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F249" t="n">
-        <v>2616191.886</v>
+        <v>793699.6988</v>
       </c>
       <c r="G249" t="n">
-        <v>13.34666666666667</v>
+        <v>13.30166666666667</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C250" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D250" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E250" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F250" t="n">
-        <v>290536.0757</v>
+        <v>2616191.886</v>
       </c>
       <c r="G250" t="n">
-        <v>13.39166666666667</v>
+        <v>13.34666666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="C251" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D251" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E251" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F251" t="n">
-        <v>210141.8229</v>
+        <v>290536.0757</v>
       </c>
       <c r="G251" t="n">
-        <v>13.43</v>
+        <v>13.39166666666667</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6914,18 +7669,21 @@
         <v>15.2</v>
       </c>
       <c r="D252" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E252" t="n">
         <v>15.1</v>
       </c>
       <c r="F252" t="n">
-        <v>388383.0149881579</v>
+        <v>210141.8229</v>
       </c>
       <c r="G252" t="n">
-        <v>13.46833333333334</v>
+        <v>13.43</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C253" t="n">
         <v>15.2</v>
-      </c>
-      <c r="C253" t="n">
-        <v>15.1</v>
       </c>
       <c r="D253" t="n">
         <v>15.2</v>
       </c>
       <c r="E253" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F253" t="n">
-        <v>207420.18</v>
+        <v>388383.0149881579</v>
       </c>
       <c r="G253" t="n">
-        <v>13.505</v>
+        <v>13.46833333333334</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C254" t="n">
         <v>15.1</v>
       </c>
-      <c r="C254" t="n">
-        <v>15.3</v>
-      </c>
       <c r="D254" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E254" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F254" t="n">
-        <v>539270.7144118421</v>
+        <v>207420.18</v>
       </c>
       <c r="G254" t="n">
-        <v>13.54333333333334</v>
+        <v>13.505</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C255" t="n">
         <v>15.3</v>
-      </c>
-      <c r="C255" t="n">
-        <v>15.2</v>
       </c>
       <c r="D255" t="n">
         <v>15.3</v>
       </c>
       <c r="E255" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F255" t="n">
-        <v>113327.5225</v>
+        <v>539270.7144118421</v>
       </c>
       <c r="G255" t="n">
-        <v>13.58166666666667</v>
+        <v>13.54333333333334</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C256" t="n">
         <v>15.2</v>
       </c>
-      <c r="C256" t="n">
-        <v>15</v>
-      </c>
       <c r="D256" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E256" t="n">
         <v>15.2</v>
       </c>
-      <c r="E256" t="n">
-        <v>15</v>
-      </c>
       <c r="F256" t="n">
-        <v>359633.5046</v>
+        <v>113327.5225</v>
       </c>
       <c r="G256" t="n">
-        <v>13.61666666666667</v>
+        <v>13.58166666666667</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="C257" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D257" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="E257" t="n">
-        <v>14.2</v>
+        <v>15</v>
       </c>
       <c r="F257" t="n">
-        <v>631054.7402</v>
+        <v>359633.5046</v>
       </c>
       <c r="G257" t="n">
-        <v>13.64666666666667</v>
+        <v>13.61666666666667</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,7 +7837,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C258" t="n">
         <v>14.8</v>
@@ -7073,15 +7846,18 @@
         <v>14.8</v>
       </c>
       <c r="E258" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="F258" t="n">
-        <v>474072.4078</v>
+        <v>631054.7402</v>
       </c>
       <c r="G258" t="n">
-        <v>13.67833333333334</v>
+        <v>13.64666666666667</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7093,21 +7869,24 @@
         <v>14.8</v>
       </c>
       <c r="C259" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D259" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E259" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F259" t="n">
-        <v>441448.3439</v>
+        <v>474072.4078</v>
       </c>
       <c r="G259" t="n">
-        <v>13.71333333333334</v>
+        <v>13.67833333333334</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,7 +7895,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C260" t="n">
         <v>15</v>
@@ -7125,15 +7904,18 @@
         <v>15</v>
       </c>
       <c r="E260" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F260" t="n">
-        <v>891019.3354</v>
+        <v>441448.3439</v>
       </c>
       <c r="G260" t="n">
-        <v>13.74666666666667</v>
+        <v>13.71333333333334</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C261" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D261" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E261" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F261" t="n">
-        <v>657986.2671000001</v>
+        <v>891019.3354</v>
       </c>
       <c r="G261" t="n">
-        <v>13.78166666666667</v>
+        <v>13.74666666666667</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7171,21 +7956,24 @@
         <v>15.1</v>
       </c>
       <c r="C262" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D262" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E262" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F262" t="n">
-        <v>408849.8841</v>
+        <v>657986.2671000001</v>
       </c>
       <c r="G262" t="n">
-        <v>13.82166666666667</v>
+        <v>13.78166666666667</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C263" t="n">
         <v>15.3</v>
       </c>
-      <c r="C263" t="n">
-        <v>15</v>
-      </c>
       <c r="D263" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E263" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F263" t="n">
-        <v>468944.6515</v>
+        <v>408849.8841</v>
       </c>
       <c r="G263" t="n">
-        <v>13.85666666666667</v>
+        <v>13.82166666666667</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C264" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D264" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E264" t="n">
         <v>15</v>
       </c>
       <c r="F264" t="n">
-        <v>501669.0483</v>
+        <v>468944.6515</v>
       </c>
       <c r="G264" t="n">
-        <v>13.89166666666667</v>
+        <v>13.85666666666667</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7255,15 +8049,18 @@
         <v>15.2</v>
       </c>
       <c r="E265" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F265" t="n">
-        <v>49739.0354</v>
+        <v>501669.0483</v>
       </c>
       <c r="G265" t="n">
-        <v>13.92833333333334</v>
+        <v>13.89166666666667</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7272,10 +8069,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C266" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D266" t="n">
         <v>15.2</v>
@@ -7284,12 +8081,15 @@
         <v>15.1</v>
       </c>
       <c r="F266" t="n">
-        <v>1094453.9242</v>
+        <v>49739.0354</v>
       </c>
       <c r="G266" t="n">
-        <v>13.96500000000001</v>
+        <v>13.92833333333334</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7307,15 +8107,18 @@
         <v>15.2</v>
       </c>
       <c r="E267" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F267" t="n">
-        <v>104370.522</v>
+        <v>1094453.9242</v>
       </c>
       <c r="G267" t="n">
-        <v>14.00166666666667</v>
+        <v>13.96500000000001</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7327,21 +8130,24 @@
         <v>15.2</v>
       </c>
       <c r="C268" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D268" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E268" t="n">
         <v>15.2</v>
       </c>
       <c r="F268" t="n">
-        <v>154995.1803</v>
+        <v>104370.522</v>
       </c>
       <c r="G268" t="n">
-        <v>14.04000000000001</v>
+        <v>14.00166666666667</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7353,7 +8159,7 @@
         <v>15.2</v>
       </c>
       <c r="C269" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D269" t="n">
         <v>15.3</v>
@@ -7362,12 +8168,15 @@
         <v>15.2</v>
       </c>
       <c r="F269" t="n">
-        <v>773267.2283</v>
+        <v>154995.1803</v>
       </c>
       <c r="G269" t="n">
-        <v>14.08000000000001</v>
+        <v>14.04000000000001</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7379,21 +8188,24 @@
         <v>15.2</v>
       </c>
       <c r="C270" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D270" t="n">
         <v>15.3</v>
       </c>
       <c r="E270" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F270" t="n">
-        <v>398580.5795</v>
+        <v>773267.2283</v>
       </c>
       <c r="G270" t="n">
-        <v>14.12000000000001</v>
+        <v>14.08000000000001</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7405,21 +8217,24 @@
         <v>15.2</v>
       </c>
       <c r="C271" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D271" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E271" t="n">
         <v>15.1</v>
       </c>
       <c r="F271" t="n">
-        <v>244330.7359</v>
+        <v>398580.5795</v>
       </c>
       <c r="G271" t="n">
-        <v>14.15833333333334</v>
+        <v>14.12000000000001</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7431,21 +8246,24 @@
         <v>15.2</v>
       </c>
       <c r="C272" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="D272" t="n">
         <v>15.2</v>
       </c>
       <c r="E272" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="F272" t="n">
-        <v>1394147.4146</v>
+        <v>244330.7359</v>
       </c>
       <c r="G272" t="n">
-        <v>14.18500000000001</v>
+        <v>14.15833333333334</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C273" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D273" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E273" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F273" t="n">
-        <v>841538.0808999999</v>
+        <v>1394147.4146</v>
       </c>
       <c r="G273" t="n">
-        <v>14.21000000000001</v>
+        <v>14.18500000000001</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7480,24 +8301,27 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="C274" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D274" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E274" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F274" t="n">
-        <v>505326.6636</v>
+        <v>841538.0808999999</v>
       </c>
       <c r="G274" t="n">
-        <v>14.23000000000001</v>
+        <v>14.21000000000001</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7506,24 +8330,27 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C275" t="n">
         <v>14.3</v>
       </c>
-      <c r="C275" t="n">
-        <v>14.2</v>
-      </c>
       <c r="D275" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E275" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="F275" t="n">
-        <v>333599.606</v>
+        <v>505326.6636</v>
       </c>
       <c r="G275" t="n">
-        <v>14.25000000000001</v>
+        <v>14.23000000000001</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="C276" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D276" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="E276" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F276" t="n">
-        <v>855087.9666</v>
+        <v>333599.606</v>
       </c>
       <c r="G276" t="n">
-        <v>14.26666666666667</v>
+        <v>14.25000000000001</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7558,24 +8388,27 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C277" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D277" t="n">
         <v>14.1</v>
       </c>
       <c r="E277" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F277" t="n">
-        <v>803267.0997</v>
+        <v>855087.9666</v>
       </c>
       <c r="G277" t="n">
-        <v>14.28666666666667</v>
+        <v>14.26666666666667</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,24 +8417,27 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="C278" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D278" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E278" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F278" t="n">
-        <v>278766.7757</v>
+        <v>803267.0997</v>
       </c>
       <c r="G278" t="n">
-        <v>14.30500000000001</v>
+        <v>14.28666666666667</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,10 +8446,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C279" t="n">
         <v>14</v>
-      </c>
-      <c r="C279" t="n">
-        <v>14.1</v>
       </c>
       <c r="D279" t="n">
         <v>14.2</v>
@@ -7622,12 +8458,15 @@
         <v>14</v>
       </c>
       <c r="F279" t="n">
-        <v>837471.2601</v>
+        <v>278766.7757</v>
       </c>
       <c r="G279" t="n">
-        <v>14.32500000000001</v>
+        <v>14.30500000000001</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7636,24 +8475,27 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
+        <v>14</v>
+      </c>
+      <c r="C280" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D280" t="n">
         <v>14.2</v>
       </c>
-      <c r="C280" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D280" t="n">
-        <v>14.4</v>
-      </c>
       <c r="E280" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="F280" t="n">
-        <v>219099.5634</v>
+        <v>837471.2601</v>
       </c>
       <c r="G280" t="n">
-        <v>14.34833333333335</v>
+        <v>14.32500000000001</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7668,18 +8510,21 @@
         <v>14.2</v>
       </c>
       <c r="D281" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="E281" t="n">
         <v>14.2</v>
       </c>
       <c r="F281" t="n">
-        <v>185892.0522</v>
+        <v>219099.5634</v>
       </c>
       <c r="G281" t="n">
-        <v>14.37166666666668</v>
+        <v>14.34833333333335</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7688,24 +8533,27 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C282" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="D282" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="E282" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="F282" t="n">
-        <v>181465.6478</v>
+        <v>185892.0522</v>
       </c>
       <c r="G282" t="n">
-        <v>14.39500000000001</v>
+        <v>14.37166666666668</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,24 +8562,27 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C283" t="n">
         <v>14.3</v>
-      </c>
-      <c r="C283" t="n">
-        <v>14.4</v>
       </c>
       <c r="D283" t="n">
         <v>14.4</v>
       </c>
       <c r="E283" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="F283" t="n">
-        <v>428345.0869</v>
+        <v>181465.6478</v>
       </c>
       <c r="G283" t="n">
-        <v>14.41833333333335</v>
+        <v>14.39500000000001</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7743,21 +8594,24 @@
         <v>14.3</v>
       </c>
       <c r="C284" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D284" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E284" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="F284" t="n">
-        <v>66689.15240000001</v>
+        <v>428345.0869</v>
       </c>
       <c r="G284" t="n">
-        <v>14.44333333333335</v>
+        <v>14.41833333333335</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7766,24 +8620,27 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C285" t="n">
         <v>14.5</v>
       </c>
-      <c r="C285" t="n">
-        <v>14.9</v>
-      </c>
       <c r="D285" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E285" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F285" t="n">
-        <v>362297.0025</v>
+        <v>66689.15240000001</v>
       </c>
       <c r="G285" t="n">
-        <v>14.47500000000001</v>
+        <v>14.44333333333335</v>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7792,24 +8649,27 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C286" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="D286" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E286" t="n">
         <v>14.5</v>
       </c>
       <c r="F286" t="n">
-        <v>1002167.7395</v>
+        <v>362297.0025</v>
       </c>
       <c r="G286" t="n">
-        <v>14.50000000000001</v>
+        <v>14.47500000000001</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7818,24 +8678,27 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C287" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D287" t="n">
         <v>14.8</v>
       </c>
       <c r="E287" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F287" t="n">
-        <v>213385.8515</v>
+        <v>1002167.7395</v>
       </c>
       <c r="G287" t="n">
-        <v>14.52833333333334</v>
+        <v>14.50000000000001</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7847,21 +8710,24 @@
         <v>14.6</v>
       </c>
       <c r="C288" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D288" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E288" t="n">
         <v>14.6</v>
       </c>
-      <c r="E288" t="n">
-        <v>14.5</v>
-      </c>
       <c r="F288" t="n">
-        <v>113130.3737</v>
+        <v>213385.8515</v>
       </c>
       <c r="G288" t="n">
-        <v>14.55500000000001</v>
+        <v>14.52833333333334</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7873,21 +8739,24 @@
         <v>14.6</v>
       </c>
       <c r="C289" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D289" t="n">
         <v>14.6</v>
       </c>
       <c r="E289" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F289" t="n">
-        <v>136622.555</v>
+        <v>113130.3737</v>
       </c>
       <c r="G289" t="n">
-        <v>14.58000000000001</v>
+        <v>14.55500000000001</v>
       </c>
       <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7899,21 +8768,24 @@
         <v>14.6</v>
       </c>
       <c r="C290" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D290" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E290" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F290" t="n">
-        <v>702573.0039</v>
+        <v>136622.555</v>
       </c>
       <c r="G290" t="n">
-        <v>14.61166666666668</v>
+        <v>14.58000000000001</v>
       </c>
       <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7922,24 +8794,27 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C291" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D291" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E291" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F291" t="n">
-        <v>106802.1741</v>
+        <v>702573.0039</v>
       </c>
       <c r="G291" t="n">
-        <v>14.64000000000001</v>
+        <v>14.61166666666668</v>
       </c>
       <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7948,544 +8823,27 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C292" t="n">
         <v>14.8</v>
       </c>
-      <c r="C292" t="n">
+      <c r="D292" t="n">
         <v>14.9</v>
-      </c>
-      <c r="D292" t="n">
-        <v>15</v>
       </c>
       <c r="E292" t="n">
         <v>14.8</v>
       </c>
       <c r="F292" t="n">
-        <v>216131.6254</v>
+        <v>106802.1741</v>
       </c>
       <c r="G292" t="n">
-        <v>14.67000000000001</v>
+        <v>14.64000000000001</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C293" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D293" t="n">
-        <v>15</v>
-      </c>
-      <c r="E293" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F293" t="n">
-        <v>251863.9874</v>
-      </c>
-      <c r="G293" t="n">
-        <v>14.69666666666668</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>15</v>
-      </c>
-      <c r="C294" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D294" t="n">
-        <v>15</v>
-      </c>
-      <c r="E294" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F294" t="n">
-        <v>1643415.3211</v>
-      </c>
-      <c r="G294" t="n">
-        <v>14.72500000000001</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C295" t="n">
-        <v>15</v>
-      </c>
-      <c r="D295" t="n">
-        <v>15</v>
-      </c>
-      <c r="E295" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F295" t="n">
-        <v>430007.8795</v>
-      </c>
-      <c r="G295" t="n">
-        <v>14.74166666666667</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C296" t="n">
-        <v>15</v>
-      </c>
-      <c r="D296" t="n">
-        <v>15</v>
-      </c>
-      <c r="E296" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F296" t="n">
-        <v>121219.4944</v>
-      </c>
-      <c r="G296" t="n">
-        <v>14.75833333333334</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>15</v>
-      </c>
-      <c r="C297" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D297" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E297" t="n">
-        <v>15</v>
-      </c>
-      <c r="F297" t="n">
-        <v>1592447.2498</v>
-      </c>
-      <c r="G297" t="n">
-        <v>14.77833333333334</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C298" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D298" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E298" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F298" t="n">
-        <v>1594959.9399</v>
-      </c>
-      <c r="G298" t="n">
-        <v>14.79333333333334</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C299" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D299" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E299" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F299" t="n">
-        <v>94879.1317</v>
-      </c>
-      <c r="G299" t="n">
-        <v>14.80666666666668</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C300" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D300" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E300" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F300" t="n">
-        <v>3013.7833</v>
-      </c>
-      <c r="G300" t="n">
-        <v>14.81666666666668</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C301" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D301" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E301" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F301" t="n">
-        <v>27559.1827</v>
-      </c>
-      <c r="G301" t="n">
-        <v>14.82666666666668</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C302" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D302" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E302" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F302" t="n">
-        <v>2248.4667</v>
-      </c>
-      <c r="G302" t="n">
-        <v>14.84166666666667</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C303" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D303" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E303" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F303" t="n">
-        <v>3203.7877</v>
-      </c>
-      <c r="G303" t="n">
-        <v>14.84833333333334</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C304" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D304" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E304" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F304" t="n">
-        <v>254.1904</v>
-      </c>
-      <c r="G304" t="n">
-        <v>14.85166666666667</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C305" t="n">
-        <v>15</v>
-      </c>
-      <c r="D305" t="n">
-        <v>15</v>
-      </c>
-      <c r="E305" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1096853.9019</v>
-      </c>
-      <c r="G305" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C306" t="n">
-        <v>15</v>
-      </c>
-      <c r="D306" t="n">
-        <v>15</v>
-      </c>
-      <c r="E306" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F306" t="n">
-        <v>66484.51240000001</v>
-      </c>
-      <c r="G306" t="n">
-        <v>14.84333333333334</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>15</v>
-      </c>
-      <c r="C307" t="n">
-        <v>15</v>
-      </c>
-      <c r="D307" t="n">
-        <v>15</v>
-      </c>
-      <c r="E307" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F307" t="n">
-        <v>153196.5463</v>
-      </c>
-      <c r="G307" t="n">
-        <v>14.84000000000001</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C308" t="n">
-        <v>15</v>
-      </c>
-      <c r="D308" t="n">
-        <v>15</v>
-      </c>
-      <c r="E308" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F308" t="n">
-        <v>169683.6557</v>
-      </c>
-      <c r="G308" t="n">
-        <v>14.83500000000001</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>15</v>
-      </c>
-      <c r="C309" t="n">
-        <v>15</v>
-      </c>
-      <c r="D309" t="n">
-        <v>15</v>
-      </c>
-      <c r="E309" t="n">
-        <v>15</v>
-      </c>
-      <c r="F309" t="n">
-        <v>3333.333333333333</v>
-      </c>
-      <c r="G309" t="n">
-        <v>14.82500000000001</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C310" t="n">
-        <v>15</v>
-      </c>
-      <c r="D310" t="n">
-        <v>15</v>
-      </c>
-      <c r="E310" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F310" t="n">
-        <v>6133</v>
-      </c>
-      <c r="G310" t="n">
-        <v>14.81666666666667</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>15</v>
-      </c>
-      <c r="C311" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D311" t="n">
-        <v>15</v>
-      </c>
-      <c r="E311" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F311" t="n">
-        <v>74301.1783</v>
-      </c>
-      <c r="G311" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C312" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D312" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E312" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F312" t="n">
-        <v>66852.4316</v>
-      </c>
-      <c r="G312" t="n">
-        <v>14.80333333333334</v>
-      </c>
-      <c r="H312" t="n">
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
